--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/其他制造业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/其他制造业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,623 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59293735.147</v>
+        <v>362632357.625639</v>
       </c>
       <c r="C2" t="n">
-        <v>11742337.3848926</v>
+        <v>39890174.3453868</v>
       </c>
       <c r="D2" t="n">
-        <v>4006315.45679984</v>
+        <v>12117750.3562893</v>
       </c>
       <c r="E2" t="n">
-        <v>29964159.8668969</v>
+        <v>132320354.329787</v>
       </c>
       <c r="F2" t="n">
-        <v>89257895.0138969</v>
+        <v>494952711.955426</v>
       </c>
       <c r="G2" t="n">
-        <v>19243383.32</v>
+        <v>141439408.355945</v>
       </c>
       <c r="H2" t="n">
-        <v>3379950.7044572</v>
+        <v>18279098.95888</v>
       </c>
       <c r="I2" t="n">
-        <v>10835556.3207473</v>
+        <v>62033330.6692308</v>
       </c>
       <c r="J2" t="n">
-        <v>344807.814</v>
+        <v>3954309.3856638</v>
       </c>
       <c r="K2" t="n">
-        <v>4191934</v>
+        <v>38066665.3505168</v>
       </c>
       <c r="L2" t="n">
-        <v>7550987</v>
+        <v>50957757.9788963</v>
       </c>
       <c r="M2" t="n">
-        <v>93094.10000000001</v>
+        <v>110819.938254381</v>
       </c>
       <c r="N2" t="n">
-        <v>1046135.24</v>
+        <v>6119798.96448298</v>
       </c>
       <c r="O2" t="n">
-        <v>5319527.7</v>
+        <v>12998924.9498076</v>
       </c>
       <c r="P2" t="n">
-        <v>2777540.09</v>
+        <v>15202955.8947043</v>
       </c>
       <c r="Q2" t="n">
-        <v>582083.768</v>
+        <v>2962527.40363298</v>
       </c>
       <c r="R2" t="n">
-        <v>3885102</v>
+        <v>11942444.3522122</v>
       </c>
       <c r="S2" t="n">
-        <v>6249882.98</v>
+        <v>19531053.1402081</v>
       </c>
       <c r="T2" t="n">
-        <v>2025887.6</v>
+        <v>15234723.5054742</v>
       </c>
       <c r="U2" t="n">
-        <v>996271.155</v>
+        <v>3946410.48962843</v>
       </c>
       <c r="V2" t="n">
-        <v>3449911.7</v>
+        <v>26322514.4604707</v>
       </c>
       <c r="W2" t="n">
-        <v>895594.6</v>
+        <v>6823887.08643436</v>
       </c>
       <c r="X2" t="n">
-        <v>579731</v>
+        <v>4049748.09465186</v>
       </c>
       <c r="Y2" t="n">
-        <v>61861.08</v>
+        <v>2968408.2746546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90229653.0016764</v>
+        <v>405581831.142689</v>
       </c>
       <c r="C3" t="n">
-        <v>17791707.1501955</v>
+        <v>57102310.1858738</v>
       </c>
       <c r="D3" t="n">
-        <v>6067508.99291746</v>
+        <v>17109712.8381912</v>
       </c>
       <c r="E3" t="n">
-        <v>48686699.6697109</v>
+        <v>152222892.094486</v>
       </c>
       <c r="F3" t="n">
-        <v>138916352.671387</v>
+        <v>557804723.237175</v>
       </c>
       <c r="G3" t="n">
-        <v>31922391.1800098</v>
+        <v>159416634.659783</v>
       </c>
       <c r="H3" t="n">
-        <v>8443995.33442758</v>
+        <v>21063195.599561</v>
       </c>
       <c r="I3" t="n">
-        <v>16383488.1921703</v>
+        <v>56947673.4708599</v>
       </c>
       <c r="J3" t="n">
-        <v>1071939.67241166</v>
+        <v>5209556.28055732</v>
       </c>
       <c r="K3" t="n">
-        <v>7931416.34029049</v>
+        <v>35232318.7105298</v>
       </c>
       <c r="L3" t="n">
-        <v>12591761.6186103</v>
+        <v>57798545.7697183</v>
       </c>
       <c r="M3" t="n">
-        <v>101526.840041065</v>
+        <v>993040.300742703</v>
       </c>
       <c r="N3" t="n">
-        <v>2640750.54612753</v>
+        <v>7620591.43558243</v>
       </c>
       <c r="O3" t="n">
-        <v>8187930.61932963</v>
+        <v>18400859.6492319</v>
       </c>
       <c r="P3" t="n">
-        <v>3875755.33568911</v>
+        <v>12991512.6041475</v>
       </c>
       <c r="Q3" t="n">
-        <v>995109.570957588</v>
+        <v>2600156.52318668</v>
       </c>
       <c r="R3" t="n">
-        <v>2918721.64539586</v>
+        <v>10936917.546376</v>
       </c>
       <c r="S3" t="n">
-        <v>4460309.2419453</v>
+        <v>20756289.3419365</v>
       </c>
       <c r="T3" t="n">
-        <v>4865707.14419827</v>
+        <v>17034487.8318368</v>
       </c>
       <c r="U3" t="n">
-        <v>893993.403954846</v>
+        <v>4817129.4166944</v>
       </c>
       <c r="V3" t="n">
-        <v>5347286.66596574</v>
+        <v>35990869.3471181</v>
       </c>
       <c r="W3" t="n">
-        <v>1585900.03422201</v>
+        <v>10057902.4958399</v>
       </c>
       <c r="X3" t="n">
-        <v>722486.356341038</v>
+        <v>2679061.07119396</v>
       </c>
       <c r="Y3" t="n">
-        <v>116666.786186177</v>
+        <v>3045958.15821439</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154475300.257744</v>
+        <v>586126333.747924</v>
       </c>
       <c r="C4" t="n">
-        <v>18424180.0209501</v>
+        <v>70604603.3612403</v>
       </c>
       <c r="D4" t="n">
-        <v>6657360.38360253</v>
+        <v>18891676.4718373</v>
       </c>
       <c r="E4" t="n">
-        <v>63934436.4747735</v>
+        <v>159043324.197156</v>
       </c>
       <c r="F4" t="n">
-        <v>218409736.732517</v>
+        <v>745169657.94508</v>
       </c>
       <c r="G4" t="n">
-        <v>52765132.6636034</v>
+        <v>218646578.680693</v>
       </c>
       <c r="H4" t="n">
-        <v>8180561.74031859</v>
+        <v>24833948.7149657</v>
       </c>
       <c r="I4" t="n">
-        <v>30672334.3299023</v>
+        <v>44713095.6491125</v>
       </c>
       <c r="J4" t="n">
-        <v>1991051.40066674</v>
+        <v>9422706.4512666</v>
       </c>
       <c r="K4" t="n">
-        <v>14862440.6213144</v>
+        <v>49318228.4499893</v>
       </c>
       <c r="L4" t="n">
-        <v>22630421.051976</v>
+        <v>80753141.4633837</v>
       </c>
       <c r="M4" t="n">
-        <v>221756.723551266</v>
+        <v>1650990.58784633</v>
       </c>
       <c r="N4" t="n">
-        <v>3106686.70571726</v>
+        <v>16122719.6605523</v>
       </c>
       <c r="O4" t="n">
-        <v>11837863.55153</v>
+        <v>32192883.3672011</v>
       </c>
       <c r="P4" t="n">
-        <v>6044087.95207192</v>
+        <v>23504027.8591398</v>
       </c>
       <c r="Q4" t="n">
-        <v>2297023.75092822</v>
+        <v>2486844.67952734</v>
       </c>
       <c r="R4" t="n">
-        <v>5379667.29274494</v>
+        <v>13518328.6318591</v>
       </c>
       <c r="S4" t="n">
-        <v>7813129.16844144</v>
+        <v>32901389.247261</v>
       </c>
       <c r="T4" t="n">
-        <v>10111019.1143876</v>
+        <v>27183493.7771388</v>
       </c>
       <c r="U4" t="n">
-        <v>2062833.15249643</v>
+        <v>3703190.83157047</v>
       </c>
       <c r="V4" t="n">
-        <v>9699000.518534459</v>
+        <v>46836699.5420114</v>
       </c>
       <c r="W4" t="n">
-        <v>2146328.33921372</v>
+        <v>17416071.4897739</v>
       </c>
       <c r="X4" t="n">
-        <v>1294416.0937084</v>
+        <v>4006742.75357514</v>
       </c>
       <c r="Y4" t="n">
-        <v>212442.156857295</v>
+        <v>6462296.27513534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>252326180.71236</v>
+        <v>50995753.8569484</v>
       </c>
       <c r="C5" t="n">
-        <v>30152182.7235033</v>
+        <v>16084390.5032849</v>
       </c>
       <c r="D5" t="n">
-        <v>8899700.765150061</v>
+        <v>3184898.68852373</v>
       </c>
       <c r="E5" t="n">
-        <v>112437211.270085</v>
+        <v>67361775.23921791</v>
       </c>
       <c r="F5" t="n">
-        <v>364763391.982445</v>
+        <v>118357529.096166</v>
       </c>
       <c r="G5" t="n">
-        <v>100711843.424327</v>
+        <v>8199778.22507455</v>
       </c>
       <c r="H5" t="n">
-        <v>16872715.6125944</v>
+        <v>13136327.5599437</v>
       </c>
       <c r="I5" t="n">
-        <v>56512612.1688369</v>
+        <v>34956158.4874655</v>
       </c>
       <c r="J5" t="n">
-        <v>2614403.74774173</v>
+        <v>2220681.43316679</v>
       </c>
       <c r="K5" t="n">
-        <v>25342094.0509901</v>
-      </c>
-      <c r="L5" t="n">
-        <v>37248708.5747794</v>
-      </c>
+        <v>2193471.40496324</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>71086.747012921</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3718547.70224162</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8496668.00982243</v>
-      </c>
+        <v>59849.3999850734</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>10812404.0203211</v>
+        <v>7780276.79155943</v>
       </c>
       <c r="Q5" t="n">
-        <v>2053188.96150106</v>
+        <v>8063700.76139815</v>
       </c>
       <c r="R5" t="n">
-        <v>7799484.61767086</v>
+        <v>2004774.56405104</v>
       </c>
       <c r="S5" t="n">
-        <v>13567810.4850399</v>
-      </c>
-      <c r="T5" t="n">
-        <v>9477810.268437119</v>
-      </c>
+        <v>3547683.93499318</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2120140.64920387</v>
+        <v>173522.429877624</v>
       </c>
       <c r="V5" t="n">
-        <v>19548658.8008932</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4104462.96189608</v>
-      </c>
+        <v>7770805.96133553</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>2734077.28319794</v>
+        <v>382039.061292049</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904790.40728348</v>
+        <v>490997.308714118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362632357.625639</v>
+        <v>67374684.17395569</v>
       </c>
       <c r="C6" t="n">
-        <v>39890174.3453868</v>
+        <v>25541967.5256686</v>
       </c>
       <c r="D6" t="n">
-        <v>12117750.3562893</v>
+        <v>6722131.42762518</v>
       </c>
       <c r="E6" t="n">
-        <v>132320354.329787</v>
+        <v>96806869.5060662</v>
       </c>
       <c r="F6" t="n">
-        <v>494952711.955426</v>
+        <v>164181553.680022</v>
       </c>
       <c r="G6" t="n">
-        <v>141439408.355945</v>
+        <v>13185015.9538418</v>
       </c>
       <c r="H6" t="n">
-        <v>18279098.95888</v>
+        <v>13432368.4743476</v>
       </c>
       <c r="I6" t="n">
-        <v>62033330.6692308</v>
+        <v>51110402.0784249</v>
       </c>
       <c r="J6" t="n">
-        <v>3954309.3856638</v>
+        <v>3078200.82215255</v>
       </c>
       <c r="K6" t="n">
-        <v>38066665.3505168</v>
-      </c>
-      <c r="L6" t="n">
-        <v>50957757.9788963</v>
-      </c>
+        <v>3451035.18212628</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>110819.938254381</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6119798.96448298</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12998924.9498076</v>
-      </c>
+        <v>89637.3047416334</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>15202955.8947043</v>
+        <v>9779074.2549146</v>
       </c>
       <c r="Q6" t="n">
-        <v>2962527.40363298</v>
+        <v>9279955.587512679</v>
       </c>
       <c r="R6" t="n">
-        <v>11942444.3522122</v>
+        <v>2627836.63394468</v>
       </c>
       <c r="S6" t="n">
-        <v>19531053.1402081</v>
-      </c>
-      <c r="T6" t="n">
-        <v>15234723.5054742</v>
-      </c>
+        <v>4187381.80693571</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3946410.48962843</v>
+        <v>234833.114334997</v>
       </c>
       <c r="V6" t="n">
-        <v>26322514.4604707</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6823887.08643436</v>
-      </c>
+        <v>9105176.990569631</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>4049748.09465186</v>
+        <v>485772.817581162</v>
       </c>
       <c r="Y6" t="n">
-        <v>2968408.2746546</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>405581831.142689</v>
-      </c>
-      <c r="C7" t="n">
-        <v>57102310.1858738</v>
-      </c>
-      <c r="D7" t="n">
-        <v>17109712.8381912</v>
-      </c>
-      <c r="E7" t="n">
-        <v>152222892.094486</v>
-      </c>
-      <c r="F7" t="n">
-        <v>557804723.237175</v>
-      </c>
-      <c r="G7" t="n">
-        <v>159416634.659783</v>
-      </c>
-      <c r="H7" t="n">
-        <v>21063195.599561</v>
-      </c>
-      <c r="I7" t="n">
-        <v>56947673.4708599</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5209556.28055732</v>
-      </c>
-      <c r="K7" t="n">
-        <v>35232318.7105298</v>
-      </c>
-      <c r="L7" t="n">
-        <v>57798545.7697183</v>
-      </c>
-      <c r="M7" t="n">
-        <v>993040.300742703</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7620591.43558243</v>
-      </c>
-      <c r="O7" t="n">
-        <v>18400859.6492319</v>
-      </c>
-      <c r="P7" t="n">
-        <v>12991512.6041475</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2600156.52318668</v>
-      </c>
-      <c r="R7" t="n">
-        <v>10936917.546376</v>
-      </c>
-      <c r="S7" t="n">
-        <v>20756289.3419365</v>
-      </c>
-      <c r="T7" t="n">
-        <v>17034487.8318368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4817129.4166944</v>
-      </c>
-      <c r="V7" t="n">
-        <v>35990869.3471181</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10057902.4958399</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2679061.07119396</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3045958.15821439</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>586126333.747924</v>
-      </c>
-      <c r="C8" t="n">
-        <v>70604603.3612403</v>
-      </c>
-      <c r="D8" t="n">
-        <v>18891676.4718373</v>
-      </c>
-      <c r="E8" t="n">
-        <v>159043324.197156</v>
-      </c>
-      <c r="F8" t="n">
-        <v>745169657.94508</v>
-      </c>
-      <c r="G8" t="n">
-        <v>218646578.680693</v>
-      </c>
-      <c r="H8" t="n">
-        <v>24833948.7149657</v>
-      </c>
-      <c r="I8" t="n">
-        <v>44713095.6491125</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9422706.4512666</v>
-      </c>
-      <c r="K8" t="n">
-        <v>49318228.4499893</v>
-      </c>
-      <c r="L8" t="n">
-        <v>80753141.4633837</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1650990.58784633</v>
-      </c>
-      <c r="N8" t="n">
-        <v>16122719.6605523</v>
-      </c>
-      <c r="O8" t="n">
-        <v>32192883.3672011</v>
-      </c>
-      <c r="P8" t="n">
-        <v>23504027.8591398</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2486844.67952734</v>
-      </c>
-      <c r="R8" t="n">
-        <v>13518328.6318591</v>
-      </c>
-      <c r="S8" t="n">
-        <v>32901389.247261</v>
-      </c>
-      <c r="T8" t="n">
-        <v>27183493.7771388</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3703190.83157047</v>
-      </c>
-      <c r="V8" t="n">
-        <v>46836699.5420114</v>
-      </c>
-      <c r="W8" t="n">
-        <v>17416071.4897739</v>
-      </c>
-      <c r="X8" t="n">
-        <v>4006742.75357514</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>6462296.27513534</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>50995753.8569484</v>
-      </c>
-      <c r="C9" t="n">
-        <v>16084390.5032849</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3184898.68852373</v>
-      </c>
-      <c r="E9" t="n">
-        <v>67361775.23921791</v>
-      </c>
-      <c r="F9" t="n">
-        <v>118357529.096166</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8199778.22507455</v>
-      </c>
-      <c r="H9" t="n">
-        <v>13136327.5599437</v>
-      </c>
-      <c r="I9" t="n">
-        <v>34956158.4874655</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2220681.43316679</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2193471.40496324</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>59849.3999850734</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>7780276.79155943</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8063700.76139815</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2004774.56405104</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3547683.93499318</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>173522.429877624</v>
-      </c>
-      <c r="V9" t="n">
-        <v>7770805.96133553</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>382039.061292049</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>490997.308714118</v>
+        <v>618269.902072791</v>
       </c>
     </row>
   </sheetData>
